--- a/SchedulingData/static6/pso/scheduling1_12.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>77.66</v>
+        <v>64.42</v>
       </c>
       <c r="E2" t="n">
-        <v>24.904</v>
+        <v>25.728</v>
       </c>
     </row>
     <row r="3">
@@ -485,55 +485,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>77.09999999999999</v>
+        <v>72.66</v>
       </c>
       <c r="E3" t="n">
-        <v>26.44</v>
+        <v>24.904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>77.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>125.46</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>22.744</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>74.95999999999999</v>
+        <v>77.84</v>
       </c>
       <c r="E5" t="n">
-        <v>25.164</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="6">
@@ -542,302 +542,302 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.24</v>
+        <v>45.1</v>
       </c>
       <c r="E6" t="n">
-        <v>26.776</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125.46</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>174.04</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>20.016</v>
+        <v>25.776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>77.66</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>121.46</v>
+        <v>139.98</v>
       </c>
       <c r="E8" t="n">
-        <v>22.144</v>
+        <v>21.772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39.24</v>
+        <v>64.42</v>
       </c>
       <c r="D9" t="n">
-        <v>125.18</v>
+        <v>131.78</v>
       </c>
       <c r="E9" t="n">
-        <v>23.752</v>
+        <v>20.632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>121.46</v>
+        <v>45.1</v>
       </c>
       <c r="D10" t="n">
-        <v>192.36</v>
+        <v>91.23999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>16.684</v>
+        <v>24.196</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125.18</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>204.08</v>
+        <v>130.7</v>
       </c>
       <c r="E11" t="n">
-        <v>18.472</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>174.04</v>
+        <v>139.98</v>
       </c>
       <c r="D12" t="n">
-        <v>262.94</v>
+        <v>203.8</v>
       </c>
       <c r="E12" t="n">
-        <v>15.216</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>74.95999999999999</v>
+        <v>72.66</v>
       </c>
       <c r="D13" t="n">
-        <v>127.56</v>
+        <v>136.18</v>
       </c>
       <c r="E13" t="n">
-        <v>21.524</v>
+        <v>20.692</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>262.94</v>
+        <v>131.78</v>
       </c>
       <c r="D14" t="n">
-        <v>312.88</v>
+        <v>183.58</v>
       </c>
       <c r="E14" t="n">
-        <v>11.352</v>
+        <v>17.072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>91.23999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>87.38</v>
+        <v>170.04</v>
       </c>
       <c r="E15" t="n">
-        <v>26.412</v>
+        <v>18.916</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>192.36</v>
+        <v>136.18</v>
       </c>
       <c r="D16" t="n">
-        <v>260.78</v>
+        <v>183.58</v>
       </c>
       <c r="E16" t="n">
-        <v>12.472</v>
+        <v>17.572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>127.56</v>
+        <v>130.7</v>
       </c>
       <c r="D17" t="n">
-        <v>185.4</v>
+        <v>197.54</v>
       </c>
       <c r="E17" t="n">
-        <v>17.38</v>
+        <v>17.156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>87.38</v>
+        <v>183.58</v>
       </c>
       <c r="D18" t="n">
-        <v>158.62</v>
+        <v>227.12</v>
       </c>
       <c r="E18" t="n">
-        <v>22.408</v>
+        <v>14.348</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>312.88</v>
+        <v>197.54</v>
       </c>
       <c r="D19" t="n">
-        <v>405.98</v>
+        <v>257.28</v>
       </c>
       <c r="E19" t="n">
-        <v>7.632</v>
+        <v>13.292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>204.08</v>
+        <v>77.84</v>
       </c>
       <c r="D20" t="n">
-        <v>274.52</v>
+        <v>130.64</v>
       </c>
       <c r="E20" t="n">
-        <v>14.048</v>
+        <v>22.216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>158.62</v>
+        <v>170.04</v>
       </c>
       <c r="D21" t="n">
-        <v>259.92</v>
+        <v>212.58</v>
       </c>
       <c r="E21" t="n">
-        <v>17.848</v>
+        <v>15.792</v>
       </c>
     </row>
     <row r="22">
@@ -846,112 +846,112 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>274.52</v>
+        <v>212.58</v>
       </c>
       <c r="D22" t="n">
-        <v>348.44</v>
+        <v>269.38</v>
       </c>
       <c r="E22" t="n">
-        <v>11.276</v>
+        <v>10.752</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>260.78</v>
+        <v>183.58</v>
       </c>
       <c r="D23" t="n">
-        <v>317.58</v>
+        <v>251.58</v>
       </c>
       <c r="E23" t="n">
-        <v>7.432</v>
+        <v>13.392</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>348.44</v>
+        <v>227.12</v>
       </c>
       <c r="D24" t="n">
-        <v>391.98</v>
+        <v>294.98</v>
       </c>
       <c r="E24" t="n">
-        <v>8.052</v>
+        <v>10.652</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>259.92</v>
+        <v>257.28</v>
       </c>
       <c r="D25" t="n">
-        <v>322.26</v>
+        <v>306.48</v>
       </c>
       <c r="E25" t="n">
-        <v>14.724</v>
+        <v>9.992000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>405.98</v>
+        <v>306.48</v>
       </c>
       <c r="D26" t="n">
-        <v>471.76</v>
+        <v>409.38</v>
       </c>
       <c r="E26" t="n">
-        <v>5.124</v>
+        <v>6.272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>130.64</v>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>180.98</v>
       </c>
       <c r="E27" t="n">
-        <v>26.7</v>
+        <v>19.312</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>251.58</v>
       </c>
       <c r="D28" t="n">
-        <v>94.3</v>
+        <v>288.22</v>
       </c>
       <c r="E28" t="n">
-        <v>22.9</v>
+        <v>10.368</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>317.58</v>
+        <v>180.98</v>
       </c>
       <c r="D29" t="n">
-        <v>389.62</v>
+        <v>219.56</v>
       </c>
       <c r="E29" t="n">
-        <v>3.848</v>
+        <v>16.584</v>
       </c>
     </row>
     <row r="30">
@@ -998,74 +998,74 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>322.26</v>
+        <v>219.56</v>
       </c>
       <c r="D30" t="n">
-        <v>375.84</v>
+        <v>280.2</v>
       </c>
       <c r="E30" t="n">
-        <v>11.476</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>94.3</v>
+        <v>269.38</v>
       </c>
       <c r="D31" t="n">
-        <v>171.92</v>
+        <v>313.3</v>
       </c>
       <c r="E31" t="n">
-        <v>17.748</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>171.92</v>
+        <v>203.8</v>
       </c>
       <c r="D32" t="n">
-        <v>217.26</v>
+        <v>258.56</v>
       </c>
       <c r="E32" t="n">
-        <v>14.844</v>
+        <v>14.164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>217.26</v>
+        <v>294.98</v>
       </c>
       <c r="D33" t="n">
-        <v>284.42</v>
+        <v>353.58</v>
       </c>
       <c r="E33" t="n">
-        <v>9.747999999999999</v>
+        <v>7.892</v>
       </c>
     </row>
     <row r="34">
@@ -1074,55 +1074,55 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>185.4</v>
+        <v>258.56</v>
       </c>
       <c r="D34" t="n">
-        <v>239.9</v>
+        <v>332.5</v>
       </c>
       <c r="E34" t="n">
-        <v>15.06</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>239.9</v>
+        <v>288.22</v>
       </c>
       <c r="D35" t="n">
-        <v>333.54</v>
+        <v>364.32</v>
       </c>
       <c r="E35" t="n">
-        <v>10.796</v>
+        <v>6.828</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>333.54</v>
+        <v>313.3</v>
       </c>
       <c r="D36" t="n">
-        <v>396.34</v>
+        <v>362.56</v>
       </c>
       <c r="E36" t="n">
-        <v>7.116</v>
+        <v>4.184</v>
       </c>
     </row>
     <row r="37">
@@ -1131,131 +1131,131 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>284.42</v>
+        <v>364.32</v>
       </c>
       <c r="D37" t="n">
-        <v>342.96</v>
+        <v>426.24</v>
       </c>
       <c r="E37" t="n">
-        <v>5.524</v>
+        <v>4.236</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>396.34</v>
+        <v>353.58</v>
       </c>
       <c r="D38" t="n">
-        <v>444.46</v>
+        <v>422.98</v>
       </c>
       <c r="E38" t="n">
-        <v>3.924</v>
+        <v>3.092</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>375.84</v>
+        <v>422.98</v>
       </c>
       <c r="D39" t="n">
-        <v>437.94</v>
+        <v>462.36</v>
       </c>
       <c r="E39" t="n">
-        <v>8.356</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>437.94</v>
+        <v>462.36</v>
       </c>
       <c r="D40" t="n">
-        <v>492.32</v>
+        <v>533.79</v>
       </c>
       <c r="E40" t="n">
-        <v>5.548</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>391.98</v>
+        <v>280.2</v>
       </c>
       <c r="D41" t="n">
-        <v>435.9</v>
+        <v>327.4</v>
       </c>
       <c r="E41" t="n">
-        <v>5.28</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>342.96</v>
+        <v>327.4</v>
       </c>
       <c r="D42" t="n">
-        <v>397.32</v>
+        <v>370.62</v>
       </c>
       <c r="E42" t="n">
-        <v>1.728</v>
+        <v>4.888</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>397.32</v>
+        <v>409.38</v>
       </c>
       <c r="D43" t="n">
-        <v>480.66</v>
+        <v>491.68</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>2.612</v>
       </c>
     </row>
     <row r="44">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>435.9</v>
+        <v>362.56</v>
       </c>
       <c r="D44" t="n">
-        <v>492.04</v>
+        <v>419.54</v>
       </c>
       <c r="E44" t="n">
-        <v>1.796</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="45">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>492.04</v>
+        <v>419.54</v>
       </c>
       <c r="D45" t="n">
-        <v>555.45</v>
+        <v>519.85</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1298,37 +1298,37 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>471.76</v>
+        <v>370.62</v>
       </c>
       <c r="D46" t="n">
-        <v>560.58</v>
+        <v>472.12</v>
       </c>
       <c r="E46" t="n">
-        <v>0.852</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>560.58</v>
+        <v>472.12</v>
       </c>
       <c r="D47" t="n">
-        <v>650.58</v>
+        <v>548.46</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -1336,40 +1336,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>444.46</v>
+        <v>519.85</v>
       </c>
       <c r="D48" t="n">
-        <v>533.11</v>
+        <v>583.79</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>533.11</v>
+        <v>426.24</v>
       </c>
       <c r="D49" t="n">
-        <v>615.3099999999999</v>
+        <v>474.92</v>
       </c>
       <c r="E49" t="n">
-        <v>25.92</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="50">
@@ -1378,74 +1378,93 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>480.66</v>
+        <v>474.92</v>
       </c>
       <c r="D50" t="n">
-        <v>524.26</v>
+        <v>569.34</v>
       </c>
       <c r="E50" t="n">
-        <v>26.34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>555.45</v>
+        <v>332.5</v>
       </c>
       <c r="D51" t="n">
-        <v>607.97</v>
+        <v>405.32</v>
       </c>
       <c r="E51" t="n">
-        <v>27.408</v>
+        <v>4.748</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>492.32</v>
+        <v>405.32</v>
       </c>
       <c r="D52" t="n">
-        <v>531.8200000000001</v>
+        <v>459.62</v>
       </c>
       <c r="E52" t="n">
-        <v>3.228</v>
+        <v>2.428</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>524.26</v>
+        <v>491.68</v>
       </c>
       <c r="D53" t="n">
-        <v>571.0599999999999</v>
+        <v>528.16</v>
       </c>
       <c r="E53" t="n">
-        <v>22.8</v>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>depot1</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>528.16</v>
+      </c>
+      <c r="D54" t="n">
+        <v>599.95</v>
+      </c>
+      <c r="E54" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
